--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448083.1397647</v>
+        <v>-450940.952084039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373136</v>
+        <v>9777368.694373148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>317.9082069827355</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>237.8005557153567</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.1794019728827</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>15.58116229461309</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>20.16013205738677</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.91780625496028</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>380.4177241578217</v>
       </c>
       <c r="F5" t="n">
-        <v>167.7544172865969</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>85.92645860395731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>126.7632886126194</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>379.1404319757494</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>119.9930604287589</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>112.4320885516562</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1.938553216412018</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>167.9127597017473</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>266.1585564602566</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756579</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>119.0525754178801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>132.2747312650259</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.59787904365861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>164.4024557880732</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>175.2369515041549</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>136.5963896222576</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.5342760058776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081983</v>
+        <v>84.61259060081974</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.0240632056146</v>
+        <v>84.02406320561458</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>92.39246241888165</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>127.6429814757037</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108373</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>47.88058113793286</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308924</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.984777118936</v>
+        <v>869.6464828433432</v>
       </c>
       <c r="C2" t="n">
-        <v>1024.022260178525</v>
+        <v>548.527081850681</v>
       </c>
       <c r="D2" t="n">
-        <v>665.7565615717742</v>
+        <v>548.527081850681</v>
       </c>
       <c r="E2" t="n">
-        <v>425.5539800411109</v>
+        <v>548.527081850681</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2626.381853776379</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2372.620068414471</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2372.620068414471</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2019.851413144356</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1646.385654883277</v>
       </c>
       <c r="Y2" t="n">
-        <v>1779.584617183058</v>
+        <v>1256.246322907465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3791120239296</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>262.3791120239296</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>262.3791120239296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>114.4660184415364</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.4660184415364</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541693</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541693</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1490.978909181595</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.016392241183</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.016392241183</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E5" t="n">
-        <v>1122.016392241183</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>2440.423984540446</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>2151.006814503486</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>2151.006814503486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.576038264086</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.613521323674</v>
+        <v>1547.282842550967</v>
       </c>
       <c r="D8" t="n">
-        <v>721.3478227169235</v>
+        <v>1189.017143944216</v>
       </c>
       <c r="E8" t="n">
-        <v>335.5595701186792</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>328.6140693694758</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="11">
@@ -5036,46 +5036,46 @@
         <v>135.8452469121383</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>450.1331281309855</v>
+        <v>282.7274791106325</v>
       </c>
       <c r="K11" t="n">
-        <v>1104.856460266285</v>
+        <v>937.4508112459321</v>
       </c>
       <c r="L11" t="n">
-        <v>1555.890673514694</v>
+        <v>1801.969626899287</v>
       </c>
       <c r="M11" t="n">
-        <v>2089.422578186618</v>
+        <v>2335.501531571211</v>
       </c>
       <c r="N11" t="n">
-        <v>2636.201395245401</v>
+        <v>2882.280348629994</v>
       </c>
       <c r="O11" t="n">
-        <v>3396.507795393364</v>
+        <v>3762.244998959448</v>
       </c>
       <c r="P11" t="n">
-        <v>4109.86288284031</v>
+        <v>4385.113979267867</v>
       </c>
       <c r="Q11" t="n">
-        <v>4568.341085349298</v>
+        <v>4633.400341023549</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4582.126739107448</v>
+        <v>4582.126739107446</v>
       </c>
       <c r="T11" t="n">
-        <v>4376.14899149167</v>
+        <v>4376.148991491668</v>
       </c>
       <c r="U11" t="n">
-        <v>4206.540143308087</v>
+        <v>4122.618514765505</v>
       </c>
       <c r="V11" t="n">
-        <v>3875.477255964517</v>
+        <v>3791.555627421934</v>
       </c>
       <c r="W11" t="n">
         <v>3522.708600694402</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>968.8800862005332</v>
+        <v>968.8800862005314</v>
       </c>
       <c r="C12" t="n">
-        <v>794.4270569194063</v>
+        <v>794.4270569194044</v>
       </c>
       <c r="D12" t="n">
-        <v>645.4926472581551</v>
+        <v>645.4926472581533</v>
       </c>
       <c r="E12" t="n">
-        <v>486.2551922526995</v>
+        <v>486.2551922526977</v>
       </c>
       <c r="F12" t="n">
-        <v>339.7206342795846</v>
+        <v>339.7206342795828</v>
       </c>
       <c r="G12" t="n">
-        <v>203.3575341122025</v>
+        <v>203.3575341122015</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8556397500695</v>
+        <v>112.8556397500691</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>187.5256176422247</v>
+        <v>187.5256176422243</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225721</v>
+        <v>425.7898166225715</v>
       </c>
       <c r="L12" t="n">
-        <v>792.4879769352378</v>
+        <v>792.4879769352366</v>
       </c>
       <c r="M12" t="n">
-        <v>1239.764302157554</v>
+        <v>1239.764302157552</v>
       </c>
       <c r="N12" t="n">
-        <v>1713.287345712009</v>
+        <v>1713.287345712007</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.248625130063</v>
+        <v>2124.248625130062</v>
       </c>
       <c r="P12" t="n">
-        <v>2434.748216606166</v>
+        <v>2434.748216606165</v>
       </c>
       <c r="Q12" t="n">
-        <v>2592.389774252766</v>
+        <v>2592.389774252764</v>
       </c>
       <c r="R12" t="n">
-        <v>2592.245420845281</v>
+        <v>2592.24542084528</v>
       </c>
       <c r="S12" t="n">
-        <v>2462.807534338761</v>
+        <v>2462.80753433876</v>
       </c>
       <c r="T12" t="n">
-        <v>2270.164534016617</v>
+        <v>2270.164534016615</v>
       </c>
       <c r="U12" t="n">
-        <v>2042.096687151032</v>
+        <v>2042.096687151031</v>
       </c>
       <c r="V12" t="n">
-        <v>1806.94457891929</v>
+        <v>1806.944578919288</v>
       </c>
       <c r="W12" t="n">
-        <v>1552.707222191088</v>
+        <v>1552.707222191086</v>
       </c>
       <c r="X12" t="n">
-        <v>1344.855721985555</v>
+        <v>1344.855721985553</v>
       </c>
       <c r="Y12" t="n">
-        <v>1137.095423220601</v>
+        <v>1137.0954232206</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.493954615041</v>
+        <v>479.9842041890477</v>
       </c>
       <c r="C13" t="n">
-        <v>558.5577716871342</v>
+        <v>479.9842041890477</v>
       </c>
       <c r="D13" t="n">
-        <v>408.4411322747984</v>
+        <v>479.9842041890477</v>
       </c>
       <c r="E13" t="n">
-        <v>408.4411322747984</v>
+        <v>332.0711106066545</v>
       </c>
       <c r="F13" t="n">
-        <v>261.5511847768881</v>
+        <v>185.1811631087442</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
         <v>138.9709805985426</v>
@@ -5224,25 +5224,25 @@
         <v>1954.630779807916</v>
       </c>
       <c r="S13" t="n">
-        <v>1954.630779807916</v>
+        <v>1762.944895634743</v>
       </c>
       <c r="T13" t="n">
-        <v>1732.864164377443</v>
+        <v>1541.178280204269</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.864164377443</v>
+        <v>1252.075413329912</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.179676171556</v>
+        <v>997.3909251240256</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.924549486828</v>
+        <v>707.973755087065</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.934998588811</v>
+        <v>479.9842041890477</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.1424194452808</v>
+        <v>479.9842041890477</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127637</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160771</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800317</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259454</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946802</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052808</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C15" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D15" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E15" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149644</v>
+        <v>142.676769632788</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0894235587139</v>
+        <v>142.676769632788</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.107777810839</v>
+        <v>734.6951238849149</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.203741210173</v>
+        <v>1356.79108728425</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695767</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S15" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U15" t="n">
         <v>2016.877442379908</v>
@@ -5397,7 +5397,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.876178449477</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.4560930369216</v>
+        <v>852.3722300260573</v>
       </c>
       <c r="C16" t="n">
-        <v>632.4560930369216</v>
+        <v>683.4360470981504</v>
       </c>
       <c r="D16" t="n">
-        <v>632.4560930369216</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369216</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5661455390112</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135901</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294188</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033118</v>
+        <v>2246.242309074622</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.7041817475</v>
+        <v>2026.563526789005</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062227</v>
+        <v>1737.487313103731</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.94347985634</v>
+        <v>1482.802824897844</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819379</v>
+        <v>1482.802824897844</v>
       </c>
       <c r="X16" t="n">
-        <v>897.536758921362</v>
+        <v>1254.813273999827</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.1045578671614</v>
+        <v>1034.020694856297</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127637</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160769</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507186</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383984</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944171</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
         <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
         <v>3468.466124132384</v>
@@ -5558,7 +5558,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>373.2380436180413</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180413</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701667</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269501</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.228836269693</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3350971725665</v>
+        <v>715.8882940911275</v>
       </c>
       <c r="C19" t="n">
-        <v>621.3989142446596</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="D19" t="n">
-        <v>471.2822748323239</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E19" t="n">
-        <v>323.3691812499308</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F19" t="n">
-        <v>176.4792337520204</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>176.4792337520204</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948562</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294193</v>
       </c>
       <c r="S19" t="n">
-        <v>2361.553154294188</v>
+        <v>2178.382964033123</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.87437200857</v>
+        <v>1958.704181747505</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.867350287201</v>
+        <v>1669.627968062232</v>
       </c>
       <c r="V19" t="n">
-        <v>1710.182862081314</v>
+        <v>1414.943479856345</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.765692044354</v>
+        <v>1125.526309819385</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.776141146336</v>
+        <v>897.5367589213672</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.9835620028063</v>
+        <v>897.5367589213672</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668096</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310559</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562684</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.851722962018</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695767</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1099.422008959557</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>930.4858260316505</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D22" t="n">
-        <v>780.3691866193147</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369216</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390112</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135901</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1414.94347985634</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1414.94347985634</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127633</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160738</v>
+        <v>93.84834815160724</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507193</v>
+        <v>373.3442236507196</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384002</v>
+        <v>842.9746074384009</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944173</v>
+        <v>1462.494387944175</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.49894988321</v>
+        <v>2183.498949883211</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800314</v>
+        <v>2920.783927800317</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259451</v>
+        <v>3603.645964259454</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946798</v>
+        <v>4151.951912946802</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052804</v>
+        <v>4515.534099052808</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2380436180366</v>
+        <v>142.676769632788</v>
       </c>
       <c r="M24" t="n">
-        <v>965.256397870163</v>
+        <v>734.6951238849149</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269498</v>
+        <v>1356.79108728425</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.228836269691</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.850710918487</v>
+        <v>897.9446874942856</v>
       </c>
       <c r="C25" t="n">
-        <v>834.9145279905803</v>
+        <v>729.0085045663787</v>
       </c>
       <c r="D25" t="n">
-        <v>684.7978885782445</v>
+        <v>578.891865154043</v>
       </c>
       <c r="E25" t="n">
-        <v>536.8847949958514</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F25" t="n">
-        <v>389.994847497941</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G25" t="n">
-        <v>222.7806526725199</v>
+        <v>318.3519507135899</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411607</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117239</v>
+        <v>432.4591980117242</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948575</v>
+        <v>820.2210160948581</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139316</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931023</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946052</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782256</v>
+        <v>2311.699365782257</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335692</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033122</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="T25" t="n">
-        <v>2178.382964033122</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="U25" t="n">
-        <v>2178.382964033122</v>
+        <v>2072.47694060892</v>
       </c>
       <c r="V25" t="n">
-        <v>1923.698475827235</v>
+        <v>1817.792452403033</v>
       </c>
       <c r="W25" t="n">
-        <v>1634.281305790274</v>
+        <v>1528.375282366073</v>
       </c>
       <c r="X25" t="n">
-        <v>1406.291754892257</v>
+        <v>1300.385731468055</v>
       </c>
       <c r="Y25" t="n">
-        <v>1185.499175748727</v>
+        <v>1079.593152324525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
         <v>2129.438138565707</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580114</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942655</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>259.9332618875014</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>230.3985999507478</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51.31264782911228</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782909577</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782910151</v>
+        <v>51.31264782909577</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>47.36468478827202</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>144.1298143569051</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>83.08241225715463</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>83.08241225715636</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.60632145146243</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23464,25 +23464,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>167.4704229187109</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>16.34074175318645</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108366</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.9867743084362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.84436531055465</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.9485000442655</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>30.65043147637019</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.05037734621723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>54.04150022768752</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>12.81100831625025</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440915</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>119.366239960695</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.151612349409311e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1096911.303451371</v>
+        <v>1096911.30345137</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1145376.027698768</v>
+        <v>1145376.027698767</v>
       </c>
     </row>
     <row r="6">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236031.1785465853</v>
+        <v>236031.1785465852</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>255953.8194714465</v>
+        <v>255953.8194714464</v>
       </c>
       <c r="F2" t="n">
-        <v>262171.9675635315</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="G2" t="n">
-        <v>262171.9675635316</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="H2" t="n">
-        <v>262171.9675635315</v>
+        <v>262171.9675635318</v>
       </c>
       <c r="I2" t="n">
         <v>262171.9675635317</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
         <v>262322.6448992519</v>
@@ -26344,13 +26344,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793794</v>
+        <v>720985.2833793792</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.2126521505</v>
+        <v>212048.2126521528</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.839003839966609e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.540397761345957e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.009379224</v>
+        <v>183669.0093792236</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901375</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363193</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146960.3591674188</v>
+        <v>146960.3591674185</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.76556585631</v>
+        <v>23899.76556585629</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855413</v>
+        <v>5781.971894855182</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855437</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855263</v>
+        <v>5781.971894855182</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="M4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="M4" t="n">
-        <v>5067.59260167043</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>95081.87666815527</v>
+        <v>95081.87666815524</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583756.1378987873</v>
+        <v>-583993.1178730895</v>
       </c>
       <c r="C6" t="n">
-        <v>-17085.00878524862</v>
+        <v>-17085.00878524882</v>
       </c>
       <c r="D6" t="n">
-        <v>-17085.00878524865</v>
+        <v>-17085.00878524873</v>
       </c>
       <c r="E6" t="n">
-        <v>-584013.1061419445</v>
+        <v>-584096.8350322093</v>
       </c>
       <c r="F6" t="n">
-        <v>-56588.25644071284</v>
+        <v>-56624.15342257919</v>
       </c>
       <c r="G6" t="n">
-        <v>155459.9562114377</v>
+        <v>155424.0592295728</v>
       </c>
       <c r="H6" t="n">
-        <v>155459.9562114376</v>
+        <v>155424.0592295738</v>
       </c>
       <c r="I6" t="n">
-        <v>155459.9562114364</v>
+        <v>155424.0592295745</v>
       </c>
       <c r="J6" t="n">
-        <v>-27536.48690554951</v>
+        <v>-27571.22483098491</v>
       </c>
       <c r="K6" t="n">
-        <v>156132.5224736743</v>
+        <v>156097.7845482387</v>
       </c>
       <c r="L6" t="n">
-        <v>156132.5224736745</v>
+        <v>156097.7845482389</v>
       </c>
       <c r="M6" t="n">
-        <v>31825.31108353693</v>
+        <v>31790.57315810159</v>
       </c>
       <c r="N6" t="n">
-        <v>131188.2894935813</v>
+        <v>131188.2894935812</v>
       </c>
       <c r="O6" t="n">
-        <v>150616.0074872128</v>
+        <v>150616.0074872133</v>
       </c>
       <c r="P6" t="n">
-        <v>150616.0074872132</v>
+        <v>150616.0074872129</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716384</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230832</v>
+        <v>268.2643481230862</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625290194</v>
+        <v>9.934451625289512</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-2.244260891292179e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591159</v>
+        <v>673.8912089591163</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405327</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>204.6966437688287</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>200.8671580630447</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.6718481245505</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.3919960040906</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>1.5126459144401</v>
       </c>
       <c r="F5" t="n">
-        <v>239.1216284551145</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>81.32036249467052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>40.54651364643149</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.789938096512344</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>293.791109592036</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>173.8497856903215</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>284.584445120179</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-4.034570610778886e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29284,13 +29284,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P14" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.688653684821</v>
+        <v>187.1630768341378</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745706</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238319</v>
+        <v>694.9967242426198</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M16" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561736</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>420.0532525768178</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426184</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745706</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504278</v>
+        <v>306.467419192828</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169176</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377417</v>
+        <v>5.459461502377421</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122274</v>
+        <v>55.91171011122277</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704056</v>
+        <v>210.4758895704057</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874057</v>
+        <v>463.3649706874061</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083042</v>
+        <v>694.4639760830424</v>
       </c>
       <c r="L23" t="n">
-        <v>861.543971036425</v>
+        <v>861.5439710364255</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293294</v>
+        <v>958.6336695293299</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229593</v>
+        <v>974.1453645229599</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086938</v>
+        <v>919.8578442086944</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687511</v>
+        <v>785.0773883687517</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148597</v>
+        <v>589.5604233148601</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987157</v>
+        <v>342.9428985987159</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854255</v>
+        <v>124.4074789854256</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665716</v>
+        <v>23.89879272665717</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901933</v>
+        <v>0.4367569201901936</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.9210694255409</v>
+        <v>2.921069425540903</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088186</v>
+        <v>28.21138103088188</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>420.7661933823283</v>
+        <v>187.876017639653</v>
       </c>
       <c r="M24" t="n">
-        <v>740.132371550429</v>
+        <v>740.1323715504294</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927626</v>
+        <v>759.7214730927631</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426194</v>
+        <v>694.9967242426198</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982445</v>
+        <v>557.7961431982449</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286949</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862151</v>
+        <v>54.25758340862155</v>
       </c>
       <c r="T24" t="n">
         <v>11.77395965821091</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013751</v>
+        <v>0.1921756201013752</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291839</v>
+        <v>2.448926481291841</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548564</v>
+        <v>21.77318271548565</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284914</v>
+        <v>73.64589818284919</v>
       </c>
       <c r="J25" t="n">
-        <v>173.139102227333</v>
+        <v>173.1391022273331</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900882</v>
+        <v>284.5207311900883</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640613</v>
+        <v>364.0885788640615</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265016</v>
+        <v>383.8803574265019</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416869</v>
+        <v>374.7525405416871</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465957</v>
+        <v>346.1446266465959</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282419</v>
+        <v>296.1865264282421</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561739</v>
+        <v>205.064198356174</v>
       </c>
       <c r="R25" t="n">
         <v>110.1126397860858</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851322</v>
+        <v>42.67810967851324</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551967</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704641</v>
+        <v>0.1335778080704642</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722585</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932195</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,16 +35422,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>767.9862627757205</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>629.1605861701197</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O14" t="n">
-        <v>741.072280616118</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.847214710462</v>
+        <v>49.32163785977878</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946964</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284094</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793875</v>
+        <v>552.4004797981754</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P16" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607188</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>282.2118136024588</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981739</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243753</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263669</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946964</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284094</v>
+        <v>164.3333852708097</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>279.7582138724732</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607194</v>
+        <v>282.3190661607198</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380614</v>
+        <v>474.3741250380619</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664377</v>
+        <v>625.7775560664384</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020567</v>
+        <v>728.2874363020572</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263685</v>
+        <v>744.7323009263689</v>
       </c>
       <c r="O23" t="n">
-        <v>689.759632787007</v>
+        <v>689.7596327870076</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134817</v>
+        <v>553.8443926134821</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404102</v>
+        <v>367.2547334404106</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136851</v>
+        <v>178.6700086136796</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>282.2118136024541</v>
+        <v>49.32163785977878</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284106</v>
+        <v>597.998337628411</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094293</v>
+        <v>628.3797610094298</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798175</v>
+        <v>552.4004797981754</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839143</v>
+        <v>423.8217357839146</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426734</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066024</v>
+        <v>79.77992211066035</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642053</v>
+        <v>262.2512393642055</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243774</v>
+        <v>391.6786041243777</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883422</v>
+        <v>423.4642343883424</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209155</v>
+        <v>418.8847129209157</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606353</v>
+        <v>370.7297545606356</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931354</v>
+        <v>293.4650856931356</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044795</v>
+        <v>118.9021551044797</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502402</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
